--- a/data/trans_orig/P36B05_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B05_2023-Edad-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de pasta en 2023 (Tasa respuesta: 99,85%)</t>
+          <t>Población según la frecuencia de consumo de pasta en 2023 (Tasa respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -696,7 +696,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,61%</t>
+          <t>40,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,4%</t>
+          <t>56,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,03%</t>
+          <t>43,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>58,84%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>56,22%</t>
+          <t>55,72%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>55,11%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>45,35%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>48,14%</t>
+          <t>48,25%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,53%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,78%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,45%</t>
+          <t>43,86%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>56,58%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>47,0%</t>
+          <t>47,7%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>47,73%</t>
+          <t>47,84%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>56,21%</t>
+          <t>55,96%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>49,86%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,9%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>44,4%</t>
+          <t>44,55%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>48,5%</t>
+          <t>48,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>57,51%</t>
+          <t>58,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>51,86%</t>
+          <t>51,77%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>58,84%</t>
+          <t>58,88%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>56,89%</t>
+          <t>56,99%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>33,8%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>42,74%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>35,22%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>40,79%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,18%</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,01%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>8,03%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>41,06%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>58,29%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>56,57%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>63,42%</t>
+          <t>63,2%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>49,33%</t>
+          <t>50,33%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>59,81%</t>
+          <t>59,98%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>33,33%</t>
+          <t>33,29%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,61%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>55,45%</t>
+          <t>55,39%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>63,47%</t>
+          <t>63,41%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>53,74%</t>
+          <t>53,73%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>55,69%</t>
+          <t>55,73%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>60,77%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>27,74%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>32,26%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,46%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>14,29%</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>57,91%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>54,07%</t>
+          <t>54,34%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>72,8%</t>
+          <t>73,45%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>54,28%</t>
+          <t>54,08%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>66,22%</t>
+          <t>67,44%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>28,18%</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>55,15%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>53,76%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>58,05%</t>
+          <t>57,97%</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>34,4%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
